--- a/output/results_2023-08-08/preprocessed/ind_coef_specific_consumption_.xlsx
+++ b/output/results_2023-08-08/preprocessed/ind_coef_specific_consumption_.xlsx
@@ -585,16 +585,16 @@
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="n">
-        <v>246.493852995969</v>
+        <v>246.493852995972</v>
       </c>
       <c r="F2" t="n">
         <v>-0.120552180642</v>
       </c>
       <c r="G2" t="n">
-        <v>-7253.756565873298</v>
+        <v>-7253.756565822094</v>
       </c>
       <c r="H2" t="n">
-        <v>7.36464402503</v>
+        <v>7.364644024979</v>
       </c>
       <c r="I2" t="n">
         <v>-0.001867509744</v>
@@ -696,16 +696,16 @@
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="n">
-        <v>1007.762224607794</v>
+        <v>1007.762224607799</v>
       </c>
       <c r="F3" t="n">
         <v>-0.498546846875</v>
       </c>
       <c r="G3" t="n">
-        <v>22907.97644743018</v>
+        <v>22907.97644752023</v>
       </c>
       <c r="H3" t="n">
-        <v>-22.354803804864</v>
+        <v>-22.354803804954</v>
       </c>
       <c r="I3" t="n">
         <v>0.005452999723</v>
@@ -807,16 +807,16 @@
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="n">
-        <v>573.873252318275</v>
+        <v>573.873252318284</v>
       </c>
       <c r="F4" t="n">
         <v>-0.281495122869</v>
       </c>
       <c r="G4" t="n">
-        <v>-9205.716157458441</v>
+        <v>-9205.71615741793</v>
       </c>
       <c r="H4" t="n">
-        <v>9.47846507245</v>
+        <v>9.478465072409</v>
       </c>
       <c r="I4" t="n">
         <v>-0.002435049164</v>
@@ -918,19 +918,19 @@
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="n">
-        <v>-57.664233361728</v>
+        <v>-57.664233361727</v>
       </c>
       <c r="F5" t="n">
         <v>0.030877019761</v>
       </c>
       <c r="G5" t="n">
-        <v>120117.658738995</v>
+        <v>120117.6587362192</v>
       </c>
       <c r="H5" t="n">
-        <v>-120.385701412093</v>
+        <v>-120.385701409315</v>
       </c>
       <c r="I5" t="n">
-        <v>0.030164473555</v>
+        <v>0.030164473554</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="n">
@@ -999,16 +999,16 @@
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="n">
-        <v>151.212214530072</v>
+        <v>151.21221453007</v>
       </c>
       <c r="F6" t="n">
         <v>-0.07269519243100001</v>
       </c>
       <c r="G6" t="n">
-        <v>18566.06620582845</v>
+        <v>18566.06620578022</v>
       </c>
       <c r="H6" t="n">
-        <v>-18.450587599448</v>
+        <v>-18.4505875994</v>
       </c>
       <c r="I6" t="n">
         <v>0.004585169473</v>
@@ -1110,19 +1110,19 @@
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="n">
-        <v>1081.698120088128</v>
+        <v>1081.698120088127</v>
       </c>
       <c r="F7" t="n">
         <v>-0.539873267068</v>
       </c>
       <c r="G7" t="n">
-        <v>158930.5734079361</v>
+        <v>158930.573410346</v>
       </c>
       <c r="H7" t="n">
-        <v>-158.745182884391</v>
+        <v>-158.745182886807</v>
       </c>
       <c r="I7" t="n">
-        <v>0.039640518571</v>
+        <v>0.039640518572</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="n">
@@ -1189,16 +1189,16 @@
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="n">
-        <v>220.001585956087</v>
+        <v>220.001585956088</v>
       </c>
       <c r="F8" t="n">
         <v>-0.108533839141</v>
       </c>
       <c r="G8" t="n">
-        <v>24646.45151507708</v>
+        <v>24646.45151507236</v>
       </c>
       <c r="H8" t="n">
-        <v>-24.485955940609</v>
+        <v>-24.485955940604</v>
       </c>
       <c r="I8" t="n">
         <v>0.006082014693</v>
@@ -1300,16 +1300,16 @@
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="n">
-        <v>218.078522139053</v>
+        <v>218.078522139056</v>
       </c>
       <c r="F9" t="n">
         <v>-0.106871553955</v>
       </c>
       <c r="G9" t="n">
-        <v>-472.108501380431</v>
+        <v>-472.108501359352</v>
       </c>
       <c r="H9" t="n">
-        <v>0.581930152806</v>
+        <v>0.581930152784</v>
       </c>
       <c r="I9" t="n">
         <v>-0.000171851728</v>
@@ -1411,16 +1411,16 @@
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="n">
-        <v>109.616825280014</v>
+        <v>109.616825280015</v>
       </c>
       <c r="F10" t="n">
         <v>-0.053443806222</v>
       </c>
       <c r="G10" t="n">
-        <v>27155.2009139635</v>
+        <v>27155.2009139595</v>
       </c>
       <c r="H10" t="n">
-        <v>-27.044743042243</v>
+        <v>-27.044743042239</v>
       </c>
       <c r="I10" t="n">
         <v>0.006734160727</v>
@@ -1522,19 +1522,19 @@
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="n">
-        <v>1677.973201726283</v>
+        <v>1677.973201726416</v>
       </c>
       <c r="F11" t="n">
         <v>-0.821376842738</v>
       </c>
       <c r="G11" t="n">
-        <v>570920.0430022354</v>
+        <v>570920.0430075371</v>
       </c>
       <c r="H11" t="n">
-        <v>-569.11575518453</v>
+        <v>-569.11575518982</v>
       </c>
       <c r="I11" t="n">
-        <v>0.141834803785</v>
+        <v>0.141834803786</v>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="n">
@@ -1629,16 +1629,16 @@
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="n">
-        <v>212.63870651458</v>
+        <v>212.638706514582</v>
       </c>
       <c r="F12" t="n">
         <v>-0.104020266672</v>
       </c>
       <c r="G12" t="n">
-        <v>16941.32067542616</v>
+        <v>16941.32067544298</v>
       </c>
       <c r="H12" t="n">
-        <v>-16.799125070715</v>
+        <v>-16.799125070732</v>
       </c>
       <c r="I12" t="n">
         <v>0.004165324467</v>
@@ -1740,16 +1740,16 @@
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr"/>
       <c r="E13" t="n">
-        <v>1049.38366765213</v>
+        <v>1049.383667652129</v>
       </c>
       <c r="F13" t="n">
         <v>-0.5198355110090001</v>
       </c>
       <c r="G13" t="n">
-        <v>3081.56772015933</v>
+        <v>3081.567722087511</v>
       </c>
       <c r="H13" t="n">
-        <v>-2.54951103129</v>
+        <v>-2.549511033216</v>
       </c>
       <c r="I13" t="n">
         <v>0.000506787447</v>
@@ -1837,16 +1837,16 @@
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr"/>
       <c r="E14" t="n">
-        <v>373.832670287542</v>
+        <v>373.832670287545</v>
       </c>
       <c r="F14" t="n">
         <v>-0.184556591749</v>
       </c>
       <c r="G14" t="n">
-        <v>62849.77500587406</v>
+        <v>62849.77500586038</v>
       </c>
       <c r="H14" t="n">
-        <v>-62.535099626898</v>
+        <v>-62.535099626884</v>
       </c>
       <c r="I14" t="n">
         <v>0.015556071405</v>
@@ -1948,16 +1948,16 @@
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr"/>
       <c r="E15" t="n">
-        <v>900.2975434666359</v>
+        <v>900.297543466648</v>
       </c>
       <c r="F15" t="n">
         <v>-0.445149461212</v>
       </c>
       <c r="G15" t="n">
-        <v>90349.05886059442</v>
+        <v>90349.0588605243</v>
       </c>
       <c r="H15" t="n">
-        <v>-89.71437267655401</v>
+        <v>-89.714372676484</v>
       </c>
       <c r="I15" t="n">
         <v>0.02227211413</v>
@@ -2059,16 +2059,16 @@
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
       <c r="E16" t="n">
-        <v>112.268188192748</v>
+        <v>112.26818819275</v>
       </c>
       <c r="F16" t="n">
         <v>-0.053675178718</v>
       </c>
       <c r="G16" t="n">
-        <v>8358.499092810189</v>
+        <v>8358.499092822316</v>
       </c>
       <c r="H16" t="n">
-        <v>-8.283354566894999</v>
+        <v>-8.283354566908001</v>
       </c>
       <c r="I16" t="n">
         <v>0.002053253652</v>
@@ -2176,10 +2176,10 @@
         <v>-0.05378671263</v>
       </c>
       <c r="G17" t="n">
-        <v>17907.57719597666</v>
+        <v>17907.5771959574</v>
       </c>
       <c r="H17" t="n">
-        <v>-17.814151468649</v>
+        <v>-17.81415146863</v>
       </c>
       <c r="I17" t="n">
         <v>0.004431100178</v>
@@ -2281,16 +2281,16 @@
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr"/>
       <c r="E18" t="n">
-        <v>711.381743927202</v>
+        <v>711.381743927216</v>
       </c>
       <c r="F18" t="n">
         <v>-0.350530287331</v>
       </c>
       <c r="G18" t="n">
-        <v>-1246.284382927113</v>
+        <v>-1246.284382898103</v>
       </c>
       <c r="H18" t="n">
-        <v>1.603206487622</v>
+        <v>1.603206487593</v>
       </c>
       <c r="I18" t="n">
         <v>-0.000487445134</v>
@@ -2392,16 +2392,16 @@
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr"/>
       <c r="E19" t="n">
-        <v>411.728128162664</v>
+        <v>411.72812816267</v>
       </c>
       <c r="F19" t="n">
         <v>-0.203969989507</v>
       </c>
       <c r="G19" t="n">
-        <v>13578.49333578315</v>
+        <v>13578.49333575285</v>
       </c>
       <c r="H19" t="n">
-        <v>-13.344307374123</v>
+        <v>-13.344307374093</v>
       </c>
       <c r="I19" t="n">
         <v>0.003278432179</v>
@@ -2503,16 +2503,16 @@
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr"/>
       <c r="E20" t="n">
-        <v>395.498692120618</v>
+        <v>395.49869212062</v>
       </c>
       <c r="F20" t="n">
         <v>-0.190552558247</v>
       </c>
       <c r="G20" t="n">
-        <v>117922.1444356241</v>
+        <v>117922.1444354867</v>
       </c>
       <c r="H20" t="n">
-        <v>-117.481303353902</v>
+        <v>-117.481303353765</v>
       </c>
       <c r="I20" t="n">
         <v>0.0292633104</v>
@@ -2614,16 +2614,16 @@
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr"/>
       <c r="E21" t="n">
-        <v>402.28279976861</v>
+        <v>402.282799768619</v>
       </c>
       <c r="F21" t="n">
         <v>-0.197355949448</v>
       </c>
       <c r="G21" t="n">
-        <v>22206.50855181959</v>
+        <v>22206.50855164001</v>
       </c>
       <c r="H21" t="n">
-        <v>-21.957817101019</v>
+        <v>-21.95781710084</v>
       </c>
       <c r="I21" t="n">
         <v>0.005429099267</v>
@@ -2725,16 +2725,16 @@
       <c r="C22" t="inlineStr"/>
       <c r="D22" t="inlineStr"/>
       <c r="E22" t="n">
-        <v>66.118787143829</v>
+        <v>66.118787143833</v>
       </c>
       <c r="F22" t="n">
         <v>-0.029427639451</v>
       </c>
       <c r="G22" t="n">
-        <v>-9574.609815625883</v>
+        <v>-9574.609815604532</v>
       </c>
       <c r="H22" t="n">
-        <v>9.591950464913999</v>
+        <v>9.591950464892999</v>
       </c>
       <c r="I22" t="n">
         <v>-0.002400473797</v>
@@ -2836,16 +2836,16 @@
       <c r="C23" t="inlineStr"/>
       <c r="D23" t="inlineStr"/>
       <c r="E23" t="n">
-        <v>481.160869976561</v>
+        <v>481.160869976565</v>
       </c>
       <c r="F23" t="n">
         <v>-0.237399044364</v>
       </c>
       <c r="G23" t="n">
-        <v>69513.53475936178</v>
+        <v>69513.53475931587</v>
       </c>
       <c r="H23" t="n">
-        <v>-69.131213816917</v>
+        <v>-69.131213816871</v>
       </c>
       <c r="I23" t="n">
         <v>0.017188576871</v>
@@ -2947,16 +2947,16 @@
       <c r="C24" t="inlineStr"/>
       <c r="D24" t="inlineStr"/>
       <c r="E24" t="n">
-        <v>68.499441868386</v>
+        <v>68.499441868388</v>
       </c>
       <c r="F24" t="n">
         <v>-0.031855650914</v>
       </c>
       <c r="G24" t="n">
-        <v>-1075.600573719186</v>
+        <v>-1075.600573732977</v>
       </c>
       <c r="H24" t="n">
-        <v>1.109947971274</v>
+        <v>1.109947971288</v>
       </c>
       <c r="I24" t="n">
         <v>-0.000284872879</v>
@@ -3058,16 +3058,16 @@
       <c r="C25" t="inlineStr"/>
       <c r="D25" t="inlineStr"/>
       <c r="E25" t="n">
-        <v>366.165840131413</v>
+        <v>366.16584013142</v>
       </c>
       <c r="F25" t="n">
         <v>-0.180250367397</v>
       </c>
       <c r="G25" t="n">
-        <v>17544.16599565739</v>
+        <v>17544.16599562726</v>
       </c>
       <c r="H25" t="n">
-        <v>-17.32377150393</v>
+        <v>-17.3237715039</v>
       </c>
       <c r="I25" t="n">
         <v>0.004277201544</v>
@@ -3169,16 +3169,16 @@
       <c r="C26" t="inlineStr"/>
       <c r="D26" t="inlineStr"/>
       <c r="E26" t="n">
-        <v>2413.205670815264</v>
+        <v>2413.205670815274</v>
       </c>
       <c r="F26" t="n">
         <v>-1.191251723126</v>
       </c>
       <c r="G26" t="n">
-        <v>185659.5723659664</v>
+        <v>185659.5723658965</v>
       </c>
       <c r="H26" t="n">
-        <v>-184.069813382734</v>
+        <v>-184.069813382664</v>
       </c>
       <c r="I26" t="n">
         <v>0.045627059927</v>
@@ -3325,19 +3325,19 @@
       <c r="C28" t="inlineStr"/>
       <c r="D28" t="inlineStr"/>
       <c r="E28" t="n">
-        <v>535.791778722556</v>
+        <v>535.7917787225419</v>
       </c>
       <c r="F28" t="n">
         <v>-0.264541451831</v>
       </c>
       <c r="G28" t="n">
-        <v>-55826.70272223868</v>
+        <v>-55826.70271663669</v>
       </c>
       <c r="H28" t="n">
-        <v>55.777656485807</v>
+        <v>55.777656480236</v>
       </c>
       <c r="I28" t="n">
-        <v>-0.013930871694</v>
+        <v>-0.013930871692</v>
       </c>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
@@ -3406,19 +3406,19 @@
       <c r="C29" t="inlineStr"/>
       <c r="D29" t="inlineStr"/>
       <c r="E29" t="n">
-        <v>12679.23165752526</v>
+        <v>12679.23165752575</v>
       </c>
       <c r="F29" t="n">
         <v>-6.281776628391</v>
       </c>
       <c r="G29" t="n">
-        <v>-442885.7774940284</v>
+        <v>-442885.7775207016</v>
       </c>
       <c r="H29" t="n">
-        <v>448.36884001757</v>
+        <v>448.36884004419</v>
       </c>
       <c r="I29" t="n">
-        <v>-0.113432491722</v>
+        <v>-0.113432491729</v>
       </c>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="n">
@@ -3517,16 +3517,16 @@
       <c r="C30" t="inlineStr"/>
       <c r="D30" t="inlineStr"/>
       <c r="E30" t="n">
-        <v>1074.588310729868</v>
+        <v>1074.588310729847</v>
       </c>
       <c r="F30" t="n">
         <v>-0.530425149011</v>
       </c>
       <c r="G30" t="n">
-        <v>-617314.8191573771</v>
+        <v>-617314.8191603901</v>
       </c>
       <c r="H30" t="n">
-        <v>616.92747380025</v>
+        <v>616.927473803259</v>
       </c>
       <c r="I30" t="n">
         <v>-0.154129580457</v>
@@ -3624,16 +3624,16 @@
       <c r="C31" t="inlineStr"/>
       <c r="D31" t="inlineStr"/>
       <c r="E31" t="n">
-        <v>602.0050530230141</v>
+        <v>602.005053023051</v>
       </c>
       <c r="F31" t="n">
         <v>-0.294398876822</v>
       </c>
       <c r="G31" t="n">
-        <v>-161724.27381902</v>
+        <v>-161724.2738186705</v>
       </c>
       <c r="H31" t="n">
-        <v>161.706064952627</v>
+        <v>161.706064952278</v>
       </c>
       <c r="I31" t="n">
         <v>-0.040418104803</v>
@@ -3735,19 +3735,19 @@
       <c r="C32" t="inlineStr"/>
       <c r="D32" t="inlineStr"/>
       <c r="E32" t="n">
-        <v>-659.381794380032</v>
+        <v>-659.381794380071</v>
       </c>
       <c r="F32" t="n">
         <v>0.330300218581</v>
       </c>
       <c r="G32" t="n">
-        <v>1363801.243546878</v>
+        <v>1363801.243588272</v>
       </c>
       <c r="H32" t="n">
-        <v>-1353.301938656246</v>
+        <v>-1353.301938697279</v>
       </c>
       <c r="I32" t="n">
-        <v>0.335722281467</v>
+        <v>0.335722281477</v>
       </c>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
@@ -3845,19 +3845,19 @@
       <c r="C34" t="inlineStr"/>
       <c r="D34" t="inlineStr"/>
       <c r="E34" t="n">
-        <v>-5428.807777775573</v>
+        <v>-5428.807777774306</v>
       </c>
       <c r="F34" t="n">
-        <v>2.735666666666</v>
+        <v>2.735666666665</v>
       </c>
       <c r="G34" t="n">
-        <v>36880335.97316612</v>
+        <v>36880335.94998746</v>
       </c>
       <c r="H34" t="n">
-        <v>-37012.58894130614</v>
+        <v>-37012.58891804436</v>
       </c>
       <c r="I34" t="n">
-        <v>9.286333318611</v>
+        <v>9.286333312775</v>
       </c>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
@@ -3906,19 +3906,19 @@
       <c r="C35" t="inlineStr"/>
       <c r="D35" t="inlineStr"/>
       <c r="E35" t="n">
-        <v>20734.14195285581</v>
+        <v>20734.14195285674</v>
       </c>
       <c r="F35" t="n">
         <v>-10.373068571428</v>
       </c>
       <c r="G35" t="n">
-        <v>-7001906.072465623</v>
+        <v>-7001906.074043682</v>
       </c>
       <c r="H35" t="n">
-        <v>7024.583458417419</v>
+        <v>7024.583459998186</v>
       </c>
       <c r="I35" t="n">
-        <v>-1.761822320809</v>
+        <v>-1.761822321204</v>
       </c>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
@@ -4137,10 +4137,10 @@
         <v>0.015730715017</v>
       </c>
       <c r="G2" t="n">
-        <v>-7306.832986131932</v>
+        <v>-7306.832986130245</v>
       </c>
       <c r="H2" t="n">
-        <v>7.278532859707</v>
+        <v>7.278532859705</v>
       </c>
       <c r="I2" t="n">
         <v>-0.001812023813</v>
@@ -4242,16 +4242,16 @@
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="n">
-        <v>-66.408679561741</v>
+        <v>-66.408679561745</v>
       </c>
       <c r="F3" t="n">
         <v>0.034988854813</v>
       </c>
       <c r="G3" t="n">
-        <v>30960.63329471714</v>
+        <v>30960.63329474545</v>
       </c>
       <c r="H3" t="n">
-        <v>-30.929776838184</v>
+        <v>-30.929776838212</v>
       </c>
       <c r="I3" t="n">
         <v>0.007725515813</v>
@@ -4359,10 +4359,10 @@
         <v>-0.002753399573</v>
       </c>
       <c r="G4" t="n">
-        <v>-1026.180600118693</v>
+        <v>-1026.180600102417</v>
       </c>
       <c r="H4" t="n">
-        <v>1.028600697307</v>
+        <v>1.028600697291</v>
       </c>
       <c r="I4" t="n">
         <v>-0.000257316411</v>
@@ -4470,13 +4470,13 @@
         <v>0.083951794723</v>
       </c>
       <c r="G5" t="n">
-        <v>133800.836491375</v>
+        <v>133800.8364884784</v>
       </c>
       <c r="H5" t="n">
-        <v>-134.149282192774</v>
+        <v>-134.149282189875</v>
       </c>
       <c r="I5" t="n">
-        <v>0.033625559616</v>
+        <v>0.033625559615</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="n">
@@ -4545,16 +4545,16 @@
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="n">
-        <v>-18.455494275335</v>
+        <v>-18.455494275336</v>
       </c>
       <c r="F6" t="n">
         <v>0.010263704091</v>
       </c>
       <c r="G6" t="n">
-        <v>3399.764087773555</v>
+        <v>3399.764087767527</v>
       </c>
       <c r="H6" t="n">
-        <v>-3.401094959526</v>
+        <v>-3.40109495952</v>
       </c>
       <c r="I6" t="n">
         <v>0.000851112699</v>
@@ -4656,16 +4656,16 @@
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="n">
-        <v>-169.474194362929</v>
+        <v>-169.474194362931</v>
       </c>
       <c r="F7" t="n">
         <v>0.086379546919</v>
       </c>
       <c r="G7" t="n">
-        <v>48764.62243381688</v>
+        <v>48764.6224343723</v>
       </c>
       <c r="H7" t="n">
-        <v>-48.95821385793</v>
+        <v>-48.958213858486</v>
       </c>
       <c r="I7" t="n">
         <v>0.012288798147</v>
@@ -4741,10 +4741,10 @@
         <v>-0.028837941311</v>
       </c>
       <c r="G8" t="n">
-        <v>5078.987143832343</v>
+        <v>5078.987143834954</v>
       </c>
       <c r="H8" t="n">
-        <v>-5.037052231849</v>
+        <v>-5.037052231852</v>
       </c>
       <c r="I8" t="n">
         <v>0.001249518213</v>
@@ -4852,10 +4852,10 @@
         <v>0.0271780291</v>
       </c>
       <c r="G9" t="n">
-        <v>-7888.128440630703</v>
+        <v>-7888.12844061764</v>
       </c>
       <c r="H9" t="n">
-        <v>7.848307238413</v>
+        <v>7.8483072384</v>
       </c>
       <c r="I9" t="n">
         <v>-0.001951322932</v>
@@ -4963,10 +4963,10 @@
         <v>0.010967661633</v>
       </c>
       <c r="G10" t="n">
-        <v>-6339.054149216266</v>
+        <v>-6339.054149234787</v>
       </c>
       <c r="H10" t="n">
-        <v>6.318129719952</v>
+        <v>6.31812971997</v>
       </c>
       <c r="I10" t="n">
         <v>-0.001573597575</v>
@@ -5068,19 +5068,19 @@
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="n">
-        <v>-1507.707962031428</v>
+        <v>-1507.707962031296</v>
       </c>
       <c r="F11" t="n">
         <v>0.764635106538</v>
       </c>
       <c r="G11" t="n">
-        <v>288633.1000378568</v>
+        <v>288633.1000428758</v>
       </c>
       <c r="H11" t="n">
-        <v>-288.893137678362</v>
+        <v>-288.893137683371</v>
       </c>
       <c r="I11" t="n">
-        <v>0.07229273231199999</v>
+        <v>0.072292732313</v>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="n">
@@ -5181,10 +5181,10 @@
         <v>0.002878425808</v>
       </c>
       <c r="G12" t="n">
-        <v>3758.564645560888</v>
+        <v>3758.564645566543</v>
       </c>
       <c r="H12" t="n">
-        <v>-3.751241803854</v>
+        <v>-3.751241803859</v>
       </c>
       <c r="I12" t="n">
         <v>0.000936629571</v>
@@ -5292,13 +5292,13 @@
         <v>0.035476457404</v>
       </c>
       <c r="G13" t="n">
-        <v>30617.16150865624</v>
+        <v>30617.16150823229</v>
       </c>
       <c r="H13" t="n">
-        <v>-30.613812924386</v>
+        <v>-30.613812923963</v>
       </c>
       <c r="I13" t="n">
-        <v>0.007652787335</v>
+        <v>0.007652787334</v>
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
@@ -5383,16 +5383,16 @@
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr"/>
       <c r="E14" t="n">
-        <v>-108.467772139397</v>
+        <v>-108.467772139398</v>
       </c>
       <c r="F14" t="n">
         <v>0.055322859466</v>
       </c>
       <c r="G14" t="n">
-        <v>-17889.66486934358</v>
+        <v>-17889.66486937183</v>
       </c>
       <c r="H14" t="n">
-        <v>17.800830224054</v>
+        <v>17.800830224082</v>
       </c>
       <c r="I14" t="n">
         <v>-0.004427393351</v>
@@ -5500,10 +5500,10 @@
         <v>-0.016175662033</v>
       </c>
       <c r="G15" t="n">
-        <v>16364.77009252028</v>
+        <v>16364.77009252398</v>
       </c>
       <c r="H15" t="n">
-        <v>-16.314264570525</v>
+        <v>-16.314264570529</v>
       </c>
       <c r="I15" t="n">
         <v>0.004066271479</v>
@@ -5611,10 +5611,10 @@
         <v>0.001359527568</v>
       </c>
       <c r="G16" t="n">
-        <v>-2049.486750462058</v>
+        <v>-2049.486750459747</v>
       </c>
       <c r="H16" t="n">
-        <v>2.04540386983</v>
+        <v>2.045403869827</v>
       </c>
       <c r="I16" t="n">
         <v>-0.0005099763079999999</v>
@@ -5716,16 +5716,16 @@
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr"/>
       <c r="E17" t="n">
-        <v>17.392567101829</v>
+        <v>17.39256710183</v>
       </c>
       <c r="F17" t="n">
         <v>-0.008025624788999999</v>
       </c>
       <c r="G17" t="n">
-        <v>-7290.114753512908</v>
+        <v>-7290.114753529309</v>
       </c>
       <c r="H17" t="n">
-        <v>7.284814349137</v>
+        <v>7.284814349153</v>
       </c>
       <c r="I17" t="n">
         <v>-0.001819518064</v>
@@ -5827,16 +5827,16 @@
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr"/>
       <c r="E18" t="n">
-        <v>-12.955739313042</v>
+        <v>-12.955739313041</v>
       </c>
       <c r="F18" t="n">
         <v>0.007697299749</v>
       </c>
       <c r="G18" t="n">
-        <v>-5482.363741732373</v>
+        <v>-5482.363741745067</v>
       </c>
       <c r="H18" t="n">
-        <v>5.466127317496</v>
+        <v>5.466127317509</v>
       </c>
       <c r="I18" t="n">
         <v>-0.001361844227</v>
@@ -5938,19 +5938,19 @@
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr"/>
       <c r="E19" t="n">
-        <v>48.105941676413</v>
+        <v>48.105941676414</v>
       </c>
       <c r="F19" t="n">
         <v>-0.022500734736</v>
       </c>
       <c r="G19" t="n">
-        <v>-8618.990663894805</v>
+        <v>-8618.990663836668</v>
       </c>
       <c r="H19" t="n">
-        <v>8.627199609002</v>
+        <v>8.627199608944</v>
       </c>
       <c r="I19" t="n">
-        <v>-0.00215804626</v>
+        <v>-0.002158046259</v>
       </c>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="n">
@@ -6049,16 +6049,16 @@
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr"/>
       <c r="E20" t="n">
-        <v>-90.669569289617</v>
+        <v>-90.669569289615</v>
       </c>
       <c r="F20" t="n">
         <v>0.047699401822</v>
       </c>
       <c r="G20" t="n">
-        <v>-29755.77226065274</v>
+        <v>-29755.7722607156</v>
       </c>
       <c r="H20" t="n">
-        <v>29.653259443873</v>
+        <v>29.653259443936</v>
       </c>
       <c r="I20" t="n">
         <v>-0.007386402485</v>
@@ -6160,16 +6160,16 @@
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr"/>
       <c r="E21" t="n">
-        <v>246.232257175448</v>
+        <v>246.232257175449</v>
       </c>
       <c r="F21" t="n">
         <v>-0.120155294327</v>
       </c>
       <c r="G21" t="n">
-        <v>13537.46787803996</v>
+        <v>13537.46787803301</v>
       </c>
       <c r="H21" t="n">
-        <v>-13.384713259978</v>
+        <v>-13.384713259971</v>
       </c>
       <c r="I21" t="n">
         <v>0.003309424438</v>
@@ -6271,16 +6271,16 @@
       <c r="C22" t="inlineStr"/>
       <c r="D22" t="inlineStr"/>
       <c r="E22" t="n">
-        <v>-63.885953491898</v>
+        <v>-63.885953491897</v>
       </c>
       <c r="F22" t="n">
         <v>0.032786315927</v>
       </c>
       <c r="G22" t="n">
-        <v>-34495.83227038517</v>
+        <v>-34495.8322704428</v>
       </c>
       <c r="H22" t="n">
-        <v>34.395622158941</v>
+        <v>34.395622158999</v>
       </c>
       <c r="I22" t="n">
         <v>-0.00857331311</v>
@@ -6382,16 +6382,16 @@
       <c r="C23" t="inlineStr"/>
       <c r="D23" t="inlineStr"/>
       <c r="E23" t="n">
-        <v>-119.368051183439</v>
+        <v>-119.368051183442</v>
       </c>
       <c r="F23" t="n">
         <v>0.060991839193</v>
       </c>
       <c r="G23" t="n">
-        <v>10932.3817826179</v>
+        <v>10932.38178260453</v>
       </c>
       <c r="H23" t="n">
-        <v>-10.968575348841</v>
+        <v>-10.968575348828</v>
       </c>
       <c r="I23" t="n">
         <v>0.002751808186</v>
@@ -6493,16 +6493,16 @@
       <c r="C24" t="inlineStr"/>
       <c r="D24" t="inlineStr"/>
       <c r="E24" t="n">
-        <v>23.385618526567</v>
+        <v>23.385618526568</v>
       </c>
       <c r="F24" t="n">
         <v>-0.009920530294</v>
       </c>
       <c r="G24" t="n">
-        <v>6776.215970321467</v>
+        <v>6776.215970315588</v>
       </c>
       <c r="H24" t="n">
-        <v>-6.749196861606</v>
+        <v>-6.7491968616</v>
       </c>
       <c r="I24" t="n">
         <v>0.00168140739</v>
@@ -6604,16 +6604,16 @@
       <c r="C25" t="inlineStr"/>
       <c r="D25" t="inlineStr"/>
       <c r="E25" t="n">
-        <v>65.50464057847</v>
+        <v>65.504640578471</v>
       </c>
       <c r="F25" t="n">
         <v>-0.031904488714</v>
       </c>
       <c r="G25" t="n">
-        <v>2457.991563459761</v>
+        <v>2457.991563447965</v>
       </c>
       <c r="H25" t="n">
-        <v>-2.419589304172</v>
+        <v>-2.419589304161</v>
       </c>
       <c r="I25" t="n">
         <v>0.000595712462</v>
@@ -6715,16 +6715,16 @@
       <c r="C26" t="inlineStr"/>
       <c r="D26" t="inlineStr"/>
       <c r="E26" t="n">
-        <v>2436.552578224581</v>
+        <v>2436.552578224575</v>
       </c>
       <c r="F26" t="n">
         <v>-1.196369485807</v>
       </c>
       <c r="G26" t="n">
-        <v>406542.4090699434</v>
+        <v>406542.4090700813</v>
       </c>
       <c r="H26" t="n">
-        <v>-404.491120297283</v>
+        <v>-404.491120297421</v>
       </c>
       <c r="I26" t="n">
         <v>0.100619523669</v>
@@ -6871,16 +6871,16 @@
       <c r="C28" t="inlineStr"/>
       <c r="D28" t="inlineStr"/>
       <c r="E28" t="n">
-        <v>686.970205631589</v>
+        <v>686.970205631572</v>
       </c>
       <c r="F28" t="n">
         <v>-0.340327379036</v>
       </c>
       <c r="G28" t="n">
-        <v>129275.0739801546</v>
+        <v>129275.0739817025</v>
       </c>
       <c r="H28" t="n">
-        <v>-128.197691180321</v>
+        <v>-128.19769118186</v>
       </c>
       <c r="I28" t="n">
         <v>0.03178256021</v>
@@ -6952,19 +6952,19 @@
       <c r="C29" t="inlineStr"/>
       <c r="D29" t="inlineStr"/>
       <c r="E29" t="n">
-        <v>18611.49086447499</v>
+        <v>18611.49086447571</v>
       </c>
       <c r="F29" t="n">
         <v>-9.234802339266</v>
       </c>
       <c r="G29" t="n">
-        <v>-520656.1032718987</v>
+        <v>-520656.1033074937</v>
       </c>
       <c r="H29" t="n">
-        <v>528.950394693112</v>
+        <v>528.950394728635</v>
       </c>
       <c r="I29" t="n">
-        <v>-0.134273848252</v>
+        <v>-0.134273848261</v>
       </c>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="n">
@@ -7063,16 +7063,16 @@
       <c r="C30" t="inlineStr"/>
       <c r="D30" t="inlineStr"/>
       <c r="E30" t="n">
-        <v>-61.041758021931</v>
+        <v>-61.041758021939</v>
       </c>
       <c r="F30" t="n">
         <v>0.032735602499</v>
       </c>
       <c r="G30" t="n">
-        <v>-154269.614365673</v>
+        <v>-154269.6143666124</v>
       </c>
       <c r="H30" t="n">
-        <v>154.009016716589</v>
+        <v>154.009016717527</v>
       </c>
       <c r="I30" t="n">
         <v>-0.038435494386</v>
@@ -7170,16 +7170,16 @@
       <c r="C31" t="inlineStr"/>
       <c r="D31" t="inlineStr"/>
       <c r="E31" t="n">
-        <v>772.366670660659</v>
+        <v>772.366670660697</v>
       </c>
       <c r="F31" t="n">
         <v>-0.382558547954</v>
       </c>
       <c r="G31" t="n">
-        <v>86777.9403172249</v>
+        <v>86777.94031723909</v>
       </c>
       <c r="H31" t="n">
-        <v>-86.215505126149</v>
+        <v>-86.21550512616299</v>
       </c>
       <c r="I31" t="n">
         <v>0.021414784553</v>
@@ -7281,19 +7281,19 @@
       <c r="C32" t="inlineStr"/>
       <c r="D32" t="inlineStr"/>
       <c r="E32" t="n">
-        <v>-469.134850015713</v>
+        <v>-469.134850015732</v>
       </c>
       <c r="F32" t="n">
         <v>0.234541017735</v>
       </c>
       <c r="G32" t="n">
-        <v>163745.0283171801</v>
+        <v>163745.0283105087</v>
       </c>
       <c r="H32" t="n">
-        <v>-162.676415307863</v>
+        <v>-162.67641530124</v>
       </c>
       <c r="I32" t="n">
-        <v>0.040404503057</v>
+        <v>0.040404503055</v>
       </c>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
@@ -7391,19 +7391,19 @@
       <c r="C34" t="inlineStr"/>
       <c r="D34" t="inlineStr"/>
       <c r="E34" t="n">
-        <v>-99147.19999998058</v>
+        <v>-99147.19999997888</v>
       </c>
       <c r="F34" t="n">
-        <v>49.79999999999</v>
+        <v>49.799999999989</v>
       </c>
       <c r="G34" t="n">
-        <v>52331890.71687575</v>
+        <v>52331890.68395505</v>
       </c>
       <c r="H34" t="n">
-        <v>-52565.39991660103</v>
+        <v>-52565.39988356231</v>
       </c>
       <c r="I34" t="n">
-        <v>13.199999979081</v>
+        <v>13.199999970792</v>
       </c>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
@@ -7452,19 +7452,19 @@
       <c r="C35" t="inlineStr"/>
       <c r="D35" t="inlineStr"/>
       <c r="E35" t="n">
-        <v>592.937142856958</v>
+        <v>592.937142857019</v>
       </c>
       <c r="F35" t="n">
-        <v>-0.291428571428</v>
+        <v>-0.291428571429</v>
       </c>
       <c r="G35" t="n">
-        <v>2178662.32332982</v>
+        <v>2178662.323220663</v>
       </c>
       <c r="H35" t="n">
-        <v>-2182.180714759127</v>
+        <v>-2182.18071464976</v>
       </c>
       <c r="I35" t="n">
-        <v>0.546428571547</v>
+        <v>0.54642857152</v>
       </c>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
@@ -7677,16 +7677,16 @@
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="n">
-        <v>-261.092183753968</v>
+        <v>-261.092183753971</v>
       </c>
       <c r="F2" t="n">
         <v>0.134484074492</v>
       </c>
       <c r="G2" t="n">
-        <v>-23431.99349141002</v>
+        <v>-23431.99349149752</v>
       </c>
       <c r="H2" t="n">
-        <v>23.258877643235</v>
+        <v>23.258877643322</v>
       </c>
       <c r="I2" t="n">
         <v>-0.005769391894</v>
@@ -7788,16 +7788,16 @@
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="n">
-        <v>-30.44046842074</v>
+        <v>-30.440468420696</v>
       </c>
       <c r="F3" t="n">
         <v>0.025926991566</v>
       </c>
       <c r="G3" t="n">
-        <v>73472.61084267937</v>
+        <v>73472.61084274754</v>
       </c>
       <c r="H3" t="n">
-        <v>-73.32959183150901</v>
+        <v>-73.32959183157701</v>
       </c>
       <c r="I3" t="n">
         <v>0.01830174419</v>
@@ -7899,16 +7899,16 @@
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="n">
-        <v>-849.700794374014</v>
+        <v>-849.7007943740221</v>
       </c>
       <c r="F4" t="n">
         <v>0.433384170937</v>
       </c>
       <c r="G4" t="n">
-        <v>-6148.130282926732</v>
+        <v>-6148.130283106907</v>
       </c>
       <c r="H4" t="n">
-        <v>5.721178856293</v>
+        <v>5.721178856473</v>
       </c>
       <c r="I4" t="n">
         <v>-0.001319271777</v>
@@ -8010,16 +8010,16 @@
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="n">
-        <v>587.071660179378</v>
+        <v>587.071660179383</v>
       </c>
       <c r="F5" t="n">
         <v>-0.289052557496</v>
       </c>
       <c r="G5" t="n">
-        <v>6241.23290226585</v>
+        <v>6241.232902276503</v>
       </c>
       <c r="H5" t="n">
-        <v>-5.931864985338</v>
+        <v>-5.931864985348</v>
       </c>
       <c r="I5" t="n">
         <v>0.001407846488</v>
@@ -8121,16 +8121,16 @@
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="n">
-        <v>5.143238135853</v>
+        <v>5.143238135852</v>
       </c>
       <c r="F6" t="n">
         <v>0.0007394641779999999</v>
       </c>
       <c r="G6" t="n">
-        <v>10423.79257958418</v>
+        <v>10423.79257953698</v>
       </c>
       <c r="H6" t="n">
-        <v>-10.396997966379</v>
+        <v>-10.396997966332</v>
       </c>
       <c r="I6" t="n">
         <v>0.002594170604</v>
@@ -8232,19 +8232,19 @@
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="n">
-        <v>1429.548678857135</v>
+        <v>1429.548678857127</v>
       </c>
       <c r="F7" t="n">
         <v>-0.7061391125649999</v>
       </c>
       <c r="G7" t="n">
-        <v>-338458.8935053673</v>
+        <v>-338458.8935101881</v>
       </c>
       <c r="H7" t="n">
-        <v>338.452596120029</v>
+        <v>338.452596124827</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.084606215098</v>
+        <v>-0.084606215099</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="n">
@@ -8333,16 +8333,16 @@
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="n">
-        <v>324.334709019177</v>
+        <v>324.334709019176</v>
       </c>
       <c r="F8" t="n">
         <v>-0.158911850001</v>
       </c>
       <c r="G8" t="n">
-        <v>-57003.49427617957</v>
+        <v>-57003.49427600433</v>
       </c>
       <c r="H8" t="n">
-        <v>57.053850929205</v>
+        <v>57.05385092903</v>
       </c>
       <c r="I8" t="n">
         <v>-0.014274227292</v>
@@ -8444,16 +8444,16 @@
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="n">
-        <v>1161.572768553228</v>
+        <v>1161.572768553272</v>
       </c>
       <c r="F9" t="n">
         <v>-0.572861816244</v>
       </c>
       <c r="G9" t="n">
-        <v>11937.86450335168</v>
+        <v>11937.86450408896</v>
       </c>
       <c r="H9" t="n">
-        <v>-11.327523794142</v>
+        <v>-11.327523794878</v>
       </c>
       <c r="I9" t="n">
         <v>0.002683221052</v>
@@ -8555,16 +8555,16 @@
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="n">
-        <v>374.276456625246</v>
+        <v>374.276456625252</v>
       </c>
       <c r="F10" t="n">
         <v>-0.182182243025</v>
       </c>
       <c r="G10" t="n">
-        <v>19271.81139776916</v>
+        <v>19271.81139779189</v>
       </c>
       <c r="H10" t="n">
-        <v>-19.041786781313</v>
+        <v>-19.041786781335</v>
       </c>
       <c r="I10" t="n">
         <v>0.004705353644</v>
@@ -8666,16 +8666,16 @@
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="n">
-        <v>777.506289682108</v>
+        <v>777.506289682118</v>
       </c>
       <c r="F11" t="n">
         <v>-0.384286240911</v>
       </c>
       <c r="G11" t="n">
-        <v>125768.3547636789</v>
+        <v>125768.3547633521</v>
       </c>
       <c r="H11" t="n">
-        <v>-125.124257907391</v>
+        <v>-125.124257907065</v>
       </c>
       <c r="I11" t="n">
         <v>0.031121844523</v>
@@ -8777,16 +8777,16 @@
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="n">
-        <v>343.814097762301</v>
+        <v>343.814097762311</v>
       </c>
       <c r="F12" t="n">
         <v>-0.167481491958</v>
       </c>
       <c r="G12" t="n">
-        <v>23454.69964288389</v>
+        <v>23454.69964269716</v>
       </c>
       <c r="H12" t="n">
-        <v>-23.231979759489</v>
+        <v>-23.231979759302</v>
       </c>
       <c r="I12" t="n">
         <v>0.00575444839</v>
@@ -8888,16 +8888,16 @@
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr"/>
       <c r="E13" t="n">
-        <v>1742.488129895361</v>
+        <v>1742.48812989544</v>
       </c>
       <c r="F13" t="n">
         <v>-0.863895917567</v>
       </c>
       <c r="G13" t="n">
-        <v>112264.9637034967</v>
+        <v>112264.9637026619</v>
       </c>
       <c r="H13" t="n">
-        <v>-111.164535043386</v>
+        <v>-111.164535042553</v>
       </c>
       <c r="I13" t="n">
         <v>0.027519321159</v>
@@ -8999,19 +8999,19 @@
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr"/>
       <c r="E14" t="n">
-        <v>-870.123772240489</v>
+        <v>-870.123772240472</v>
       </c>
       <c r="F14" t="n">
         <v>0.439246136851</v>
       </c>
       <c r="G14" t="n">
-        <v>-95803.6069123714</v>
+        <v>-95803.60691621093</v>
       </c>
       <c r="H14" t="n">
-        <v>95.086536885925</v>
+        <v>95.08653688975301</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.023590343945</v>
+        <v>-0.023590343946</v>
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
@@ -9092,10 +9092,10 @@
         <v>-0.007561929633</v>
       </c>
       <c r="G15" t="n">
-        <v>-78203.01267452863</v>
+        <v>-78203.01267418741</v>
       </c>
       <c r="H15" t="n">
-        <v>78.068235462968</v>
+        <v>78.068235462627</v>
       </c>
       <c r="I15" t="n">
         <v>-0.019480869813</v>
@@ -9195,16 +9195,16 @@
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
       <c r="E16" t="n">
-        <v>254.494264671611</v>
+        <v>254.494264671616</v>
       </c>
       <c r="F16" t="n">
         <v>-0.123276437148</v>
       </c>
       <c r="G16" t="n">
-        <v>-29340.02809988908</v>
+        <v>-29340.0280999334</v>
       </c>
       <c r="H16" t="n">
-        <v>29.411844944209</v>
+        <v>29.411844944253</v>
       </c>
       <c r="I16" t="n">
         <v>-0.007368828478</v>
@@ -9306,16 +9306,16 @@
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr"/>
       <c r="E17" t="n">
-        <v>11.073362943876</v>
+        <v>11.073362943872</v>
       </c>
       <c r="F17" t="n">
         <v>-0.000430313369</v>
       </c>
       <c r="G17" t="n">
-        <v>32622.41541345951</v>
+        <v>32622.4154134663</v>
       </c>
       <c r="H17" t="n">
-        <v>-32.54631613663</v>
+        <v>-32.546316136637</v>
       </c>
       <c r="I17" t="n">
         <v>0.008119995418999999</v>
@@ -9417,16 +9417,16 @@
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr"/>
       <c r="E18" t="n">
-        <v>1625.981122865376</v>
+        <v>1625.981122865396</v>
       </c>
       <c r="F18" t="n">
         <v>-0.80247621196</v>
       </c>
       <c r="G18" t="n">
-        <v>142049.7456219968</v>
+        <v>142049.7456219335</v>
       </c>
       <c r="H18" t="n">
-        <v>-140.944387550103</v>
+        <v>-140.94438755004</v>
       </c>
       <c r="I18" t="n">
         <v>0.034964532359</v>
@@ -9528,16 +9528,16 @@
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr"/>
       <c r="E19" t="n">
-        <v>1818.988797160781</v>
+        <v>1818.988797160808</v>
       </c>
       <c r="F19" t="n">
         <v>-0.892545496068</v>
       </c>
       <c r="G19" t="n">
-        <v>84408.0136751425</v>
+        <v>84408.01367506117</v>
       </c>
       <c r="H19" t="n">
-        <v>-83.31580087051999</v>
+        <v>-83.31580087043901</v>
       </c>
       <c r="I19" t="n">
         <v>0.020564087875</v>
@@ -9639,16 +9639,16 @@
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr"/>
       <c r="E20" t="n">
-        <v>1314.5435562752</v>
+        <v>1314.54355627528</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.646916305793</v>
+        <v>-0.6469163057939999</v>
       </c>
       <c r="G20" t="n">
-        <v>-306860.4957595404</v>
+        <v>-306860.4957593324</v>
       </c>
       <c r="H20" t="n">
-        <v>306.909565963935</v>
+        <v>306.909565963728</v>
       </c>
       <c r="I20" t="n">
         <v>-0.07673342309800001</v>
@@ -9750,16 +9750,16 @@
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr"/>
       <c r="E21" t="n">
-        <v>-59.002884210532</v>
+        <v>-59.002884210531</v>
       </c>
       <c r="F21" t="n">
         <v>0.032928102865</v>
       </c>
       <c r="G21" t="n">
-        <v>-113808.7627995997</v>
+        <v>-113808.7627995804</v>
       </c>
       <c r="H21" t="n">
-        <v>113.554373889886</v>
+        <v>113.554373889867</v>
       </c>
       <c r="I21" t="n">
         <v>-0.028322892322</v>
@@ -9861,19 +9861,19 @@
       <c r="C22" t="inlineStr"/>
       <c r="D22" t="inlineStr"/>
       <c r="E22" t="n">
-        <v>-70.279892033198</v>
+        <v>-70.279892033194</v>
       </c>
       <c r="F22" t="n">
         <v>0.044676056489</v>
       </c>
       <c r="G22" t="n">
-        <v>123646.0897581631</v>
+        <v>123646.0897568797</v>
       </c>
       <c r="H22" t="n">
-        <v>-123.408307251605</v>
+        <v>-123.408307250328</v>
       </c>
       <c r="I22" t="n">
-        <v>0.030797011516</v>
+        <v>0.030797011515</v>
       </c>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="n">
@@ -9970,16 +9970,16 @@
       <c r="C23" t="inlineStr"/>
       <c r="D23" t="inlineStr"/>
       <c r="E23" t="n">
-        <v>-681.675656407076</v>
+        <v>-681.675656407088</v>
       </c>
       <c r="F23" t="n">
         <v>0.346602361737</v>
       </c>
       <c r="G23" t="n">
-        <v>16076.2777750906</v>
+        <v>16076.2777750173</v>
       </c>
       <c r="H23" t="n">
-        <v>-16.377715152342</v>
+        <v>-16.377715152268</v>
       </c>
       <c r="I23" t="n">
         <v>0.004172612856</v>
@@ -10081,16 +10081,16 @@
       <c r="C24" t="inlineStr"/>
       <c r="D24" t="inlineStr"/>
       <c r="E24" t="n">
-        <v>165.06117645879</v>
+        <v>165.061176458791</v>
       </c>
       <c r="F24" t="n">
         <v>-0.074595799711</v>
       </c>
       <c r="G24" t="n">
-        <v>55908.97956746689</v>
+        <v>55908.97956743608</v>
       </c>
       <c r="H24" t="n">
-        <v>-55.706627148947</v>
+        <v>-55.706627148916</v>
       </c>
       <c r="I24" t="n">
         <v>0.013879844664</v>
@@ -10192,16 +10192,16 @@
       <c r="C25" t="inlineStr"/>
       <c r="D25" t="inlineStr"/>
       <c r="E25" t="n">
-        <v>-194.887075685634</v>
+        <v>-194.887075685643</v>
       </c>
       <c r="F25" t="n">
         <v>0.102470383992</v>
       </c>
       <c r="G25" t="n">
-        <v>69427.78368029826</v>
+        <v>69427.7836802284</v>
       </c>
       <c r="H25" t="n">
-        <v>-69.380456434069</v>
+        <v>-69.380456433999</v>
       </c>
       <c r="I25" t="n">
         <v>0.017335556651</v>
@@ -10303,16 +10303,16 @@
       <c r="C26" t="inlineStr"/>
       <c r="D26" t="inlineStr"/>
       <c r="E26" t="n">
-        <v>236.474722555805</v>
+        <v>236.474722555812</v>
       </c>
       <c r="F26" t="n">
         <v>-0.114006994389</v>
       </c>
       <c r="G26" t="n">
-        <v>-76893.97542606578</v>
+        <v>-76893.97542628166</v>
       </c>
       <c r="H26" t="n">
-        <v>76.861629891246</v>
+        <v>76.861629891462</v>
       </c>
       <c r="I26" t="n">
         <v>-0.019204941056</v>
@@ -10504,16 +10504,16 @@
       <c r="C29" t="inlineStr"/>
       <c r="D29" t="inlineStr"/>
       <c r="E29" t="n">
-        <v>318.094471451535</v>
+        <v>318.094471451532</v>
       </c>
       <c r="F29" t="n">
         <v>-0.156444422204</v>
       </c>
       <c r="G29" t="n">
-        <v>-154410.2332071213</v>
+        <v>-154410.2332055469</v>
       </c>
       <c r="H29" t="n">
-        <v>154.242473911737</v>
+        <v>154.242473910169</v>
       </c>
       <c r="I29" t="n">
         <v>-0.03851689233</v>
@@ -10658,19 +10658,19 @@
       <c r="C31" t="inlineStr"/>
       <c r="D31" t="inlineStr"/>
       <c r="E31" t="n">
-        <v>-741.764204484433</v>
+        <v>-741.764204484417</v>
       </c>
       <c r="F31" t="n">
         <v>0.371006100729</v>
       </c>
       <c r="G31" t="n">
-        <v>-143314.1684743426</v>
+        <v>-143314.1684760717</v>
       </c>
       <c r="H31" t="n">
-        <v>142.349311737595</v>
+        <v>142.349311739317</v>
       </c>
       <c r="I31" t="n">
-        <v>-0.035346310777</v>
+        <v>-0.035346310778</v>
       </c>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
@@ -10865,19 +10865,19 @@
       <c r="C34" t="inlineStr"/>
       <c r="D34" t="inlineStr"/>
       <c r="E34" t="n">
-        <v>4114.612607193243</v>
+        <v>4114.612607193301</v>
       </c>
       <c r="F34" t="n">
         <v>-2.042350397733</v>
       </c>
       <c r="G34" t="n">
-        <v>512393.0377879965</v>
+        <v>512393.0377887342</v>
       </c>
       <c r="H34" t="n">
-        <v>-509.30057873856</v>
+        <v>-509.300578739296</v>
       </c>
       <c r="I34" t="n">
-        <v>0.126557762555</v>
+        <v>0.126557762556</v>
       </c>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="n">
@@ -10976,16 +10976,16 @@
       <c r="C35" t="inlineStr"/>
       <c r="D35" t="inlineStr"/>
       <c r="E35" t="n">
-        <v>1174.185759398031</v>
+        <v>1174.185759398063</v>
       </c>
       <c r="F35" t="n">
         <v>-0.5753745364940001</v>
       </c>
       <c r="G35" t="n">
-        <v>21637.298442837</v>
+        <v>21637.29844249714</v>
       </c>
       <c r="H35" t="n">
-        <v>-20.997414449849</v>
+        <v>-20.99741444951</v>
       </c>
       <c r="I35" t="n">
         <v>0.00509517152</v>
@@ -11245,16 +11245,16 @@
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="n">
-        <v>220.273113763827</v>
+        <v>220.273113763831</v>
       </c>
       <c r="F2" t="n">
         <v>-0.10731977996</v>
       </c>
       <c r="G2" t="n">
-        <v>-991.660484554621</v>
+        <v>-991.6604845604051</v>
       </c>
       <c r="H2" t="n">
-        <v>1.102181272009</v>
+        <v>1.102181272015</v>
       </c>
       <c r="I2" t="n">
         <v>-0.000301762965</v>
@@ -11356,16 +11356,16 @@
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="n">
-        <v>242.42263066133</v>
+        <v>242.422630661338</v>
       </c>
       <c r="F3" t="n">
         <v>-0.118191194069</v>
       </c>
       <c r="G3" t="n">
-        <v>2190.739778944492</v>
+        <v>2190.739778936164</v>
       </c>
       <c r="H3" t="n">
-        <v>-2.06259775536</v>
+        <v>-2.062597755352</v>
       </c>
       <c r="I3" t="n">
         <v>0.000485117303</v>
@@ -11473,10 +11473,10 @@
         <v>0.036869487105</v>
       </c>
       <c r="G4" t="n">
-        <v>6856.3174501757</v>
+        <v>6856.317450116189</v>
       </c>
       <c r="H4" t="n">
-        <v>-6.872069438789</v>
+        <v>-6.872069438729</v>
       </c>
       <c r="I4" t="n">
         <v>0.001723737149</v>
@@ -11578,16 +11578,16 @@
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="n">
-        <v>300.156241387857</v>
+        <v>300.156241387863</v>
       </c>
       <c r="F5" t="n">
         <v>-0.147387697367</v>
       </c>
       <c r="G5" t="n">
-        <v>-31984.36548826307</v>
+        <v>-31984.36548825853</v>
       </c>
       <c r="H5" t="n">
-        <v>32.072333786165</v>
+        <v>32.07233378616</v>
       </c>
       <c r="I5" t="n">
         <v>-0.008038619451</v>
@@ -11689,16 +11689,16 @@
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="n">
-        <v>100.163347414685</v>
+        <v>100.163347414687</v>
       </c>
       <c r="F6" t="n">
         <v>-0.047934310836</v>
       </c>
       <c r="G6" t="n">
-        <v>-8435.404140909373</v>
+        <v>-8435.404140941466</v>
       </c>
       <c r="H6" t="n">
-        <v>8.470500915822001</v>
+        <v>8.470500915854</v>
       </c>
       <c r="I6" t="n">
         <v>-0.002125296432</v>
@@ -11800,16 +11800,16 @@
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="n">
-        <v>607.204514297158</v>
+        <v>607.204514297155</v>
       </c>
       <c r="F7" t="n">
         <v>-0.293463946775</v>
       </c>
       <c r="G7" t="n">
-        <v>-164226.9702769503</v>
+        <v>-164226.9702768216</v>
       </c>
       <c r="H7" t="n">
-        <v>164.186828133903</v>
+        <v>164.186828133768</v>
       </c>
       <c r="I7" t="n">
         <v>-0.041031097022</v>
@@ -11901,16 +11901,16 @@
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="n">
-        <v>49.916259880963</v>
+        <v>49.91625988096</v>
       </c>
       <c r="F8" t="n">
         <v>-0.023232535315</v>
       </c>
       <c r="G8" t="n">
-        <v>-24290.77403507066</v>
+        <v>-24290.77403500625</v>
       </c>
       <c r="H8" t="n">
-        <v>24.268602065411</v>
+        <v>24.268602065347</v>
       </c>
       <c r="I8" t="n">
         <v>-0.006060661146</v>
@@ -12012,16 +12012,16 @@
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="n">
-        <v>494.466904915794</v>
+        <v>494.466904915812</v>
       </c>
       <c r="F9" t="n">
         <v>-0.244033006818</v>
       </c>
       <c r="G9" t="n">
-        <v>24004.9897049714</v>
+        <v>24004.9897053264</v>
       </c>
       <c r="H9" t="n">
-        <v>-23.707366392807</v>
+        <v>-23.707366393162</v>
       </c>
       <c r="I9" t="n">
         <v>0.005853955263</v>
@@ -12123,16 +12123,16 @@
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="n">
-        <v>104.744457353601</v>
+        <v>104.744457353604</v>
       </c>
       <c r="F10" t="n">
         <v>-0.050008039205</v>
       </c>
       <c r="G10" t="n">
-        <v>-13926.85029793867</v>
+        <v>-13926.85029794371</v>
       </c>
       <c r="H10" t="n">
-        <v>13.95342304059</v>
+        <v>13.953423040595</v>
       </c>
       <c r="I10" t="n">
         <v>-0.00349376867</v>
@@ -12234,16 +12234,16 @@
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="n">
-        <v>150.0397906163</v>
+        <v>150.039790616304</v>
       </c>
       <c r="F11" t="n">
         <v>-0.07325893462499999</v>
       </c>
       <c r="G11" t="n">
-        <v>49407.3755101296</v>
+        <v>49407.3755101014</v>
       </c>
       <c r="H11" t="n">
-        <v>-49.23172723078</v>
+        <v>-49.231727230751</v>
       </c>
       <c r="I11" t="n">
         <v>0.012264731079</v>
@@ -12345,16 +12345,16 @@
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="n">
-        <v>137.064848924997</v>
+        <v>137.064848925</v>
       </c>
       <c r="F12" t="n">
         <v>-0.06630781185</v>
       </c>
       <c r="G12" t="n">
-        <v>7235.681284078727</v>
+        <v>7235.681283967757</v>
       </c>
       <c r="H12" t="n">
-        <v>-7.150676178039</v>
+        <v>-7.150676177928</v>
       </c>
       <c r="I12" t="n">
         <v>0.001767505699</v>
@@ -12456,16 +12456,16 @@
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr"/>
       <c r="E13" t="n">
-        <v>1362.447344278792</v>
+        <v>1362.447344278838</v>
       </c>
       <c r="F13" t="n">
         <v>-0.675876342725</v>
       </c>
       <c r="G13" t="n">
-        <v>186227.4606804955</v>
+        <v>186227.4606803988</v>
       </c>
       <c r="H13" t="n">
-        <v>-185.169835758326</v>
+        <v>-185.169835758229</v>
       </c>
       <c r="I13" t="n">
         <v>0.046030091587</v>
@@ -12573,13 +12573,13 @@
         <v>-0.032071241448</v>
       </c>
       <c r="G14" t="n">
-        <v>-916791.3143336225</v>
+        <v>-916791.3143437299</v>
       </c>
       <c r="H14" t="n">
-        <v>914.076800811714</v>
+        <v>914.076800821795</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.22783687229</v>
+        <v>-0.227836872293</v>
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
@@ -12660,10 +12660,10 @@
         <v>-0.000623361802</v>
       </c>
       <c r="G15" t="n">
-        <v>22943.50063705872</v>
+        <v>22943.50063706737</v>
       </c>
       <c r="H15" t="n">
-        <v>-22.894577937055</v>
+        <v>-22.894577937064</v>
       </c>
       <c r="I15" t="n">
         <v>0.005712322685</v>
@@ -12763,13 +12763,13 @@
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
       <c r="E16" t="n">
-        <v>70.091814312067</v>
+        <v>70.091814312069</v>
       </c>
       <c r="F16" t="n">
         <v>-0.033101593893</v>
       </c>
       <c r="G16" t="n">
-        <v>-18586.20972932777</v>
+        <v>-18586.20972932734</v>
       </c>
       <c r="H16" t="n">
         <v>18.585753741256</v>
@@ -12874,16 +12874,16 @@
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr"/>
       <c r="E17" t="n">
-        <v>77.488844247065</v>
+        <v>77.488844247066</v>
       </c>
       <c r="F17" t="n">
         <v>-0.036781243628</v>
       </c>
       <c r="G17" t="n">
-        <v>9469.146834023175</v>
+        <v>9469.14683400761</v>
       </c>
       <c r="H17" t="n">
-        <v>-9.409588659922001</v>
+        <v>-9.409588659905999</v>
       </c>
       <c r="I17" t="n">
         <v>0.002338456962</v>
@@ -12985,16 +12985,16 @@
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr"/>
       <c r="E18" t="n">
-        <v>261.249388678098</v>
+        <v>261.249388678101</v>
       </c>
       <c r="F18" t="n">
         <v>-0.128033716451</v>
       </c>
       <c r="G18" t="n">
-        <v>13868.20827273982</v>
+        <v>13868.20827271704</v>
       </c>
       <c r="H18" t="n">
-        <v>-13.707681237748</v>
+        <v>-13.707681237726</v>
       </c>
       <c r="I18" t="n">
         <v>0.003388037316</v>
@@ -13096,16 +13096,16 @@
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr"/>
       <c r="E19" t="n">
-        <v>110.377907125223</v>
+        <v>110.377907125224</v>
       </c>
       <c r="F19" t="n">
         <v>-0.05217620464</v>
       </c>
       <c r="G19" t="n">
-        <v>2219.131023674256</v>
+        <v>2219.13102364393</v>
       </c>
       <c r="H19" t="n">
-        <v>-2.156696713312</v>
+        <v>-2.156696713282</v>
       </c>
       <c r="I19" t="n">
         <v>0.000525064734</v>
@@ -13213,10 +13213,10 @@
         <v>-0.083708091979</v>
       </c>
       <c r="G20" t="n">
-        <v>64766.52149297046</v>
+        <v>64766.52149299948</v>
       </c>
       <c r="H20" t="n">
-        <v>-64.546057298154</v>
+        <v>-64.546057298183</v>
       </c>
       <c r="I20" t="n">
         <v>0.016082953866</v>
@@ -13318,16 +13318,16 @@
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr"/>
       <c r="E21" t="n">
-        <v>119.796118063539</v>
+        <v>119.796118063541</v>
       </c>
       <c r="F21" t="n">
         <v>-0.057853929344</v>
       </c>
       <c r="G21" t="n">
-        <v>4386.928576805256</v>
+        <v>4386.928576823022</v>
       </c>
       <c r="H21" t="n">
-        <v>-4.316421564488</v>
+        <v>-4.316421564506</v>
       </c>
       <c r="I21" t="n">
         <v>0.00106248605</v>
@@ -13435,13 +13435,13 @@
         <v>0.086784390583</v>
       </c>
       <c r="G22" t="n">
-        <v>-69462.73413107343</v>
+        <v>-69462.73412969874</v>
       </c>
       <c r="H22" t="n">
-        <v>69.23178849319</v>
+        <v>69.23178849182</v>
       </c>
       <c r="I22" t="n">
-        <v>-0.017249153731</v>
+        <v>-0.01724915373</v>
       </c>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="n">
@@ -13538,16 +13538,16 @@
       <c r="C23" t="inlineStr"/>
       <c r="D23" t="inlineStr"/>
       <c r="E23" t="n">
-        <v>111.407736715582</v>
+        <v>111.407736715583</v>
       </c>
       <c r="F23" t="n">
         <v>-0.052103500402</v>
       </c>
       <c r="G23" t="n">
-        <v>-10799.11881074434</v>
+        <v>-10799.11881079757</v>
       </c>
       <c r="H23" t="n">
-        <v>10.836523859222</v>
+        <v>10.836523859275</v>
       </c>
       <c r="I23" t="n">
         <v>-0.002716644579</v>
@@ -13649,16 +13649,16 @@
       <c r="C24" t="inlineStr"/>
       <c r="D24" t="inlineStr"/>
       <c r="E24" t="n">
-        <v>173.340403126371</v>
+        <v>173.340403126374</v>
       </c>
       <c r="F24" t="n">
         <v>-0.08281998268</v>
       </c>
       <c r="G24" t="n">
-        <v>-5295.142324324963</v>
+        <v>-5295.142324541678</v>
       </c>
       <c r="H24" t="n">
-        <v>5.374686617275</v>
+        <v>5.374686617492</v>
       </c>
       <c r="I24" t="n">
         <v>-0.001361613841</v>
@@ -13760,16 +13760,16 @@
       <c r="C25" t="inlineStr"/>
       <c r="D25" t="inlineStr"/>
       <c r="E25" t="n">
-        <v>-734.661674801378</v>
+        <v>-734.661674801396</v>
       </c>
       <c r="F25" t="n">
         <v>0.371085210516</v>
       </c>
       <c r="G25" t="n">
-        <v>45322.74547305697</v>
+        <v>45322.74547294978</v>
       </c>
       <c r="H25" t="n">
-        <v>-45.593877287123</v>
+        <v>-45.593877287016</v>
       </c>
       <c r="I25" t="n">
         <v>0.011467971311</v>
@@ -13871,16 +13871,16 @@
       <c r="C26" t="inlineStr"/>
       <c r="D26" t="inlineStr"/>
       <c r="E26" t="n">
-        <v>81.44135339600901</v>
+        <v>81.441353396007</v>
       </c>
       <c r="F26" t="n">
         <v>-0.034648115376</v>
       </c>
       <c r="G26" t="n">
-        <v>53457.31069380142</v>
+        <v>53457.31069378935</v>
       </c>
       <c r="H26" t="n">
-        <v>-53.303383470677</v>
+        <v>-53.303383470665</v>
       </c>
       <c r="I26" t="n">
         <v>0.013290217061</v>
@@ -14072,19 +14072,19 @@
       <c r="C29" t="inlineStr"/>
       <c r="D29" t="inlineStr"/>
       <c r="E29" t="n">
-        <v>313.490745014007</v>
+        <v>313.490745014006</v>
       </c>
       <c r="F29" t="n">
         <v>-0.155068934314</v>
       </c>
       <c r="G29" t="n">
-        <v>17545.66208528776</v>
+        <v>17545.66208381278</v>
       </c>
       <c r="H29" t="n">
-        <v>-17.350553790911</v>
+        <v>-17.35055378944</v>
       </c>
       <c r="I29" t="n">
-        <v>0.004289645588</v>
+        <v>0.004289645587</v>
       </c>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="n">
@@ -14226,16 +14226,16 @@
       <c r="C31" t="inlineStr"/>
       <c r="D31" t="inlineStr"/>
       <c r="E31" t="n">
-        <v>-404.182728191494</v>
+        <v>-404.182728191485</v>
       </c>
       <c r="F31" t="n">
         <v>0.202181663791</v>
       </c>
       <c r="G31" t="n">
-        <v>-56721.46736898353</v>
+        <v>-56721.46737064181</v>
       </c>
       <c r="H31" t="n">
-        <v>56.284792406851</v>
+        <v>56.284792408503</v>
       </c>
       <c r="I31" t="n">
         <v>-0.013962086529</v>
@@ -14358,19 +14358,19 @@
       <c r="C33" t="inlineStr"/>
       <c r="D33" t="inlineStr"/>
       <c r="E33" t="n">
-        <v>28386.28701261156</v>
+        <v>28386.28701261178</v>
       </c>
       <c r="F33" t="n">
         <v>-14.073642229343</v>
       </c>
       <c r="G33" t="n">
-        <v>12605822.30612083</v>
+        <v>12605822.30575109</v>
       </c>
       <c r="H33" t="n">
-        <v>-12509.42622539343</v>
+        <v>-12509.42622502585</v>
       </c>
       <c r="I33" t="n">
-        <v>3.103444084663</v>
+        <v>3.103444084572</v>
       </c>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
@@ -14433,16 +14433,16 @@
       <c r="C34" t="inlineStr"/>
       <c r="D34" t="inlineStr"/>
       <c r="E34" t="n">
-        <v>527.6992428980139</v>
+        <v>527.699242898031</v>
       </c>
       <c r="F34" t="n">
         <v>-0.260150468728</v>
       </c>
       <c r="G34" t="n">
-        <v>24408.01730140436</v>
+        <v>24408.01730134711</v>
       </c>
       <c r="H34" t="n">
-        <v>-24.092536874396</v>
+        <v>-24.092536874339</v>
       </c>
       <c r="I34" t="n">
         <v>0.005946031688</v>
@@ -14544,16 +14544,16 @@
       <c r="C35" t="inlineStr"/>
       <c r="D35" t="inlineStr"/>
       <c r="E35" t="n">
-        <v>-1369.39571244151</v>
+        <v>-1369.395712441542</v>
       </c>
       <c r="F35" t="n">
         <v>0.688978852027</v>
       </c>
       <c r="G35" t="n">
-        <v>90828.92174011859</v>
+        <v>90828.92174033115</v>
       </c>
       <c r="H35" t="n">
-        <v>-91.324281695781</v>
+        <v>-91.32428169599299</v>
       </c>
       <c r="I35" t="n">
         <v>0.022956734321</v>
